--- a/data/trans_dic/CONS_ANTIDE-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANTIDE-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>5,58%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,78%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,04%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>8,17%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,48%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>6,89%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,34</t>
+          <t>0,6; 2,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 8,07</t>
+          <t>1,31; 5,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,66</t>
+          <t>0,41; 2,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,93</t>
+          <t>3,72; 7,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,4</t>
+          <t>0,96; 2,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,83</t>
+          <t>2,78; 6,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,75</t>
+          <t>1,76; 4,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,77</t>
+          <t>6,05; 10,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,15</t>
+          <t>0,95; 2,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,6</t>
+          <t>2,41; 5,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,68</t>
+          <t>1,35; 3,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,99</t>
+          <t>5,5; 8,64</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>5,53%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,86%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,19%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>5,96%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>12,5%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,79%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>4,37%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>9,52%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4,23%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,02</t>
+          <t>0,9; 4,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,77</t>
+          <t>1,17; 4,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,97</t>
+          <t>0,69; 3,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,16</t>
+          <t>3,59; 8,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,03</t>
+          <t>2,84; 6,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,73; 16,13</t>
+          <t>3,91; 8,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,03</t>
+          <t>1,33; 4,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,99</t>
+          <t>9,44; 15,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,82</t>
+          <t>2,41; 4,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,15</t>
+          <t>2,81; 5,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,57</t>
+          <t>1,39; 3,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,59</t>
+          <t>7,54; 12,43</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>9,46%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>4,37%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,19%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,43%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>14,88%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>9,31%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>11,51%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,79</t>
+          <t>1,54; 3,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 17,13</t>
+          <t>0,44; 5,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,47</t>
+          <t>1,73; 6,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,24</t>
+          <t>5,38; 17,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 10,52</t>
+          <t>2,42; 7,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 26,15</t>
+          <t>6,31; 15,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 13,1</t>
+          <t>3,3; 11,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,23</t>
+          <t>8,06; 26,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,92</t>
+          <t>2,15; 4,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 17,37</t>
+          <t>1,08; 7,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,58</t>
+          <t>2,57; 6,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,65</t>
+          <t>7,6; 17,29</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>5,46%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,75%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,89%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>12,4%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,06</t>
+          <t>2,16; 4,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 9,04</t>
+          <t>2,71; 5,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,98</t>
+          <t>0,88; 3,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,14</t>
+          <t>3,27; 8,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 9,47</t>
+          <t>3,18; 6,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 26,02</t>
+          <t>2,45; 10,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,02</t>
+          <t>5,0; 9,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 5,96</t>
+          <t>14,58; 26,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 5,76</t>
+          <t>2,93; 4,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 15,95</t>
+          <t>3,05; 6,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 6,43</t>
+          <t>3,32; 6,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,63</t>
+          <t>9,36; 16,44</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>4,24%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,16%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>10,16%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>17,12%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>10,18%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,1%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>12,44%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>7,93%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>4,45%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,6</t>
+          <t>0,46; 3,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 10,57</t>
+          <t>2,42; 8,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,38</t>
+          <t>0,95; 4,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,19</t>
+          <t>1,44; 9,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,1; 9,71</t>
+          <t>4,45; 7,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,08; 25,43</t>
+          <t>5,6; 13,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,68; 12,19</t>
+          <t>3,77; 9,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,88</t>
+          <t>10,68; 25,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,4</t>
+          <t>3,27; 5,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,28; 17,94</t>
+          <t>5,57; 10,63</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 9,19</t>
+          <t>2,89; 6,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,69</t>
+          <t>8,29; 18,36</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>6,69%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,4</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 12,05</t>
+          <t>0,34; 6,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,17</t>
+          <t>0,0; 18,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,32</t>
+          <t>2,14; 11,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,36</t>
+          <t>2,52; 5,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,45; 13,1</t>
+          <t>6,15; 10,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,35; 9,76</t>
+          <t>0,0; 42,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,54; 4,91</t>
+          <t>3,54; 13,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,54; 24,42</t>
+          <t>2,0; 4,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,56; 10,76</t>
+          <t>4,89; 8,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,31; 8,08</t>
+          <t>1,95; 24,48</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,46</t>
+          <t>3,7; 10,6</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>9,72%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,56</t>
+          <t>1,65; 2,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,74; 7,52</t>
+          <t>2,01; 3,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 4,19</t>
+          <t>1,43; 2,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,34</t>
+          <t>4,76; 7,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,34; 6,43</t>
+          <t>3,46; 4,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,3; 15,37</t>
+          <t>5,2; 8,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,63; 8,34</t>
+          <t>4,04; 6,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 4,72</t>
+          <t>11,11; 15,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,13</t>
+          <t>2,73; 3,56</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,53; 11,04</t>
+          <t>4,22; 6,15</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,1; 6,14</t>
+          <t>2,87; 4,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 3,4</t>
+          <t>8,54; 10,95</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de antidepresivos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1627</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10154</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3414</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11444</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2464</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13468</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8357</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17149</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4091</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23622</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11771</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>28593</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>869; 3145</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4799; 19051</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1198; 8478</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7633; 16048</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1377; 4079</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8320; 20756</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4881; 13120</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12694; 22268</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2737; 5943</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16038; 34017</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7741; 19031</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>22837; 35878</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1827</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8015</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6913</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15499</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20892</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6519</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23514</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9420</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>27805</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>728; 3618</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3788; 15813</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1353; 6794</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4488; 10865</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3104; 6621</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10170; 22851</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3091; 10000</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15776; 26487</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4588; 9252</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>16443; 33892</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5948; 15140</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22025; 36293</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11028</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5897</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8964</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2757</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9864</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5215</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8539</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6766</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>20892</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11112</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>17504</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2526; 6101</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2091; 27248</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3122; 11070</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5097; 16415</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1530; 4714</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6154; 15230</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2734; 9107</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4625; 15163</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4873; 9575</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6175; 41342</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6765; 16782</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11555; 26301</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5393</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22001</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5807</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8909</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7829</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>40416</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>22421</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>30935</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13223</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>62417</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>28228</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>39844</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3679; 8076</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14525; 31693</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2728; 10259</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5337; 14196</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5640; 10730</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15590; 64409</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15801; 29990</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>23080; 41604</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>10178; 16383</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>35817; 81635</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>20706; 37841</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>30084; 52846</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10226</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3602</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2276</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7971</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>43092</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9526</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16106</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9029</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>53318</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13128</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18382</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>351; 2362</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5109; 18359</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1421; 7181</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>776; 5147</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5918; 10584</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23755; 56645</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5853; 14076</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10054; 23700</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6851; 12022</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>35367; 67476</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8815; 18953</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12260; 27135</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2940</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>40291</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1740</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4670</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4870</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>6616</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1282</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>564; 11442</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1715</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>781; 4361</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2976; 6843</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>30116; 52545</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5183</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2203; 8548</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>3271; 7093</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>32146; 56741</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>422; 5286</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3654; 10471</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>14191</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>64363</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>22447</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>40452</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>30307</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>162631</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>53346</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>98292</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>44498</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>226994</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>75793</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>138744</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>11258; 18337</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>41820; 82366</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>16337; 30811</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>32287; 50831</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>25761; 35412</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>114703; 192840</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>43456; 65247</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>83245; 114108</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>38986; 50799</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>180781; 263748</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>63655; 90240</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>121920; 156306</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_ANTIDE-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANTIDE-Clase-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos</t>
+          <t>Consumo de antidepresivos (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1685,7 +1685,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos</t>
+          <t>Consumo de antidepresivos (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_ANTIDE-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANTIDE-Clase-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,16</t>
+          <t>0,59; 1,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,2</t>
+          <t>1,27; 5,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,82</t>
+          <t>3,77; 8,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,85</t>
+          <t>1,02; 2,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,94</t>
+          <t>2,77; 6,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 10,61</t>
+          <t>6,11; 10,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,06</t>
+          <t>0,95; 2,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,11</t>
+          <t>2,48; 5,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,64</t>
+          <t>5,45; 8,6</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,46</t>
+          <t>0,88; 3,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,88</t>
+          <t>1,22; 4,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,7</t>
+          <t>3,34; 8,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,07</t>
+          <t>3,1; 6,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,79</t>
+          <t>3,9; 8,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 15,85</t>
+          <t>9,43; 15,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,86</t>
+          <t>2,39; 4,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,8</t>
+          <t>2,7; 5,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,54; 12,43</t>
+          <t>7,44; 11,87</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,72</t>
+          <t>1,55; 3,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 5,73</t>
+          <t>0,4; 5,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 17,33</t>
+          <t>5,24; 17,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,46</t>
+          <t>2,44; 7,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 15,61</t>
+          <t>5,89; 15,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,06; 26,41</t>
+          <t>7,64; 26,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,22</t>
+          <t>2,14; 4,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,22</t>
+          <t>1,06; 7,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,6; 17,29</t>
+          <t>7,27; 17,37</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,75</t>
+          <t>2,29; 4,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,91</t>
+          <t>2,79; 6,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,7</t>
+          <t>3,31; 8,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,06</t>
+          <t>2,71; 5,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,12</t>
+          <t>2,17; 9,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,58; 26,28</t>
+          <t>14,34; 26,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 4,72</t>
+          <t>2,77; 4,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,96</t>
+          <t>3,08; 7,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,36; 16,44</t>
+          <t>9,4; 16,08</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,07</t>
+          <t>0,53; 2,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 8,71</t>
+          <t>2,64; 8,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 9,58</t>
+          <t>1,48; 9,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 7,96</t>
+          <t>4,86; 8,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 13,36</t>
+          <t>5,45; 13,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,68; 25,18</t>
+          <t>10,98; 25,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 5,73</t>
+          <t>3,54; 6,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,57; 10,63</t>
+          <t>5,37; 10,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,29; 18,36</t>
+          <t>8,78; 18,64</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,83</t>
+          <t>0,0; 4,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 6,86</t>
+          <t>0,31; 6,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,14; 11,93</t>
+          <t>1,84; 11,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,79</t>
+          <t>1,98; 4,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,15; 10,72</t>
+          <t>6,0; 10,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,54; 13,73</t>
+          <t>3,83; 13,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,34</t>
+          <t>1,63; 3,58</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,64</t>
+          <t>5,16; 8,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,7; 10,6</t>
+          <t>3,86; 10,73</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,68</t>
+          <t>1,62; 2,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,96</t>
+          <t>1,86; 3,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,49</t>
+          <t>4,87; 7,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,46; 4,76</t>
+          <t>3,27; 4,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,2; 8,74</t>
+          <t>5,15; 8,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,11; 15,23</t>
+          <t>11,16; 15,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,56</t>
+          <t>2,63; 3,4</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,15</t>
+          <t>4,32; 6,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,54; 10,95</t>
+          <t>8,52; 10,98</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2947</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4091</t>
+          <t>4815</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>869; 3145</t>
+          <t>959; 3234</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4799; 19051</t>
+          <t>4658; 18463</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7633; 16048</t>
+          <t>7742; 16623</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1377; 4079</t>
+          <t>1726; 4769</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8320; 20756</t>
+          <t>8267; 20485</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12694; 22268</t>
+          <t>12817; 22199</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2737; 5943</t>
+          <t>3140; 7044</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16038; 34017</t>
+          <t>16485; 34006</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>22837; 35878</t>
+          <t>22608; 35684</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>1836</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4692</t>
+          <t>5408</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6519</t>
+          <t>7243</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2151,12 +2151,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>728; 3618</t>
+          <t>799; 3317</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3788; 15813</t>
+          <t>3939; 15307</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4488; 10865</t>
+          <t>4171; 11009</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3104; 6621</t>
+          <t>3807; 7743</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10170; 22851</t>
+          <t>10137; 22883</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2186,17 +2186,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15776; 26487</t>
+          <t>15756; 26561</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4588; 9252</t>
+          <t>5083; 9792</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16443; 33892</t>
+          <t>15779; 33095</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22025; 36293</t>
+          <t>21724; 34655</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>3783</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>2642</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6766</t>
+          <t>6425</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2526; 6101</t>
+          <t>2385; 5721</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2091; 27248</t>
+          <t>1899; 27621</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2374,17 +2374,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5097; 16415</t>
+          <t>4959; 16468</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1530; 4714</t>
+          <t>1501; 4590</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6154; 15230</t>
+          <t>5750; 14727</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4625; 15163</t>
+          <t>4386; 14975</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4873; 9575</t>
+          <t>4603; 8879</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6175; 41342</t>
+          <t>6062; 40638</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>11555; 26301</t>
+          <t>11065; 26430</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5393</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7829</t>
+          <t>6866</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13223</t>
+          <t>12537</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3679; 8076</t>
+          <t>3880; 8107</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14525; 31693</t>
+          <t>14954; 33257</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2582,17 +2582,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5337; 14196</t>
+          <t>5407; 13904</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5640; 10730</t>
+          <t>4935; 9446</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15590; 64409</t>
+          <t>13826; 63287</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2602,17 +2602,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23080; 41604</t>
+          <t>22703; 41221</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10178; 16383</t>
+          <t>9765; 15880</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>35817; 81635</t>
+          <t>36109; 82803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30084; 52846</t>
+          <t>30211; 51700</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>956</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7971</t>
+          <t>8291</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9029</t>
+          <t>9247</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>351; 2362</t>
+          <t>394; 2011</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5109; 18359</t>
+          <t>5554; 18812</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2790,17 +2790,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>776; 5147</t>
+          <t>793; 5100</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5918; 10584</t>
+          <t>6094; 10999</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23755; 56645</t>
+          <t>23122; 55310</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2810,17 +2810,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10054; 23700</t>
+          <t>10333; 23651</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6851; 12022</t>
+          <t>7069; 12207</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>35367; 67476</t>
+          <t>34093; 66648</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>12260; 27135</t>
+          <t>12972; 27553</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>535</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4870</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 1282</t>
+          <t>0; 2447</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>564; 11442</t>
+          <t>512; 10686</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2998,17 +2998,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>781; 4361</t>
+          <t>674; 4281</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2976; 6843</t>
+          <t>2429; 5721</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30116; 52545</t>
+          <t>29392; 52024</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3018,17 +3018,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2203; 8548</t>
+          <t>2385; 8521</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3271; 7093</t>
+          <t>2909; 6387</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>32146; 56741</t>
+          <t>33911; 58022</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3654; 10471</t>
+          <t>3811; 10606</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>14191</t>
+          <t>14649</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>30307</t>
+          <t>29875</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>44498</t>
+          <t>44524</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>11258; 18337</t>
+          <t>11457; 18487</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>41820; 82366</t>
+          <t>38661; 82553</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3206,17 +3206,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>32287; 50831</t>
+          <t>33022; 51069</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>25761; 35412</t>
+          <t>25605; 35110</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>114703; 192840</t>
+          <t>113627; 191627</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3226,17 +3226,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>83245; 114108</t>
+          <t>83623; 113940</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>38986; 50799</t>
+          <t>39234; 50608</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>180781; 263748</t>
+          <t>185222; 269803</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>121920; 156306</t>
+          <t>121652; 156778</t>
         </is>
       </c>
     </row>
